--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>v3-ActEncounterCode</t>
+    <t>HL7V3-ActEncounterCode</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T21:10:25+00:00</t>
+    <t>2022-05-10T21:51:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T21:51:22+00:00</t>
+    <t>2022-05-10T22:13:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T22:13:39+00:00</t>
+    <t>2022-05-10T23:45:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-10T23:45:48+00:00</t>
+    <t>2022-05-11T06:37:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T06:37:05+00:00</t>
+    <t>2022-05-11T06:52:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T06:52:34+00:00</t>
+    <t>2022-05-11T06:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T06:59:06+00:00</t>
+    <t>2022-05-13T06:24:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T06:24:13+00:00</t>
+    <t>2022-05-13T07:45:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>HL7V3-ActEncounterCode</t>
+    <t>HL7V3_ActEncounterCode</t>
   </si>
   <si>
     <t>Title</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T07:45:08+00:00</t>
+    <t>2022-05-13T08:37:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T08:37:46+00:00</t>
+    <t>2022-05-13T09:09:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T09:09:22+00:00</t>
+    <t>2022-05-13T22:08:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T22:08:03+00:00</t>
+    <t>2022-05-13T23:16:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T23:16:51+00:00</t>
+    <t>2022-05-13T23:58:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T23:58:59+00:00</t>
+    <t>2022-05-14T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T08:12:22+00:00</t>
+    <t>2022-05-14T08:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T08:22:11+00:00</t>
+    <t>2022-05-14T11:44:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T11:44:41+00:00</t>
+    <t>2022-05-14T20:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T20:11:50+00:00</t>
+    <t>2022-05-14T20:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T20:22:11+00:00</t>
+    <t>2022-05-14T20:57:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T20:57:51+00:00</t>
+    <t>2022-05-14T21:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T21:08:10+00:00</t>
+    <t>2022-05-14T21:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T21:26:57+00:00</t>
+    <t>2022-05-14T21:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T21:49:33+00:00</t>
+    <t>2022-05-14T22:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T22:30:50+00:00</t>
+    <t>2022-05-14T23:00:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T23:00:37+00:00</t>
+    <t>2022-05-14T23:33:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-14T23:33:10+00:00</t>
+    <t>2022-05-15T00:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T00:46:54+00:00</t>
+    <t>2022-05-15T02:13:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T02:13:14+00:00</t>
+    <t>2022-05-15T03:44:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T03:44:39+00:00</t>
+    <t>2022-05-15T04:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:01:28+00:00</t>
+    <t>2022-05-15T04:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:22:03+00:00</t>
+    <t>2022-05-15T04:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:40:19+00:00</t>
+    <t>2022-05-15T04:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T04:50:30+00:00</t>
+    <t>2022-05-15T05:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T05:04:41+00:00</t>
+    <t>2022-05-15T05:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T05:59:51+00:00</t>
+    <t>2022-05-15T06:10:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T06:10:42+00:00</t>
+    <t>2022-05-15T06:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T06:58:01+00:00</t>
+    <t>2022-05-15T08:00:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T08:00:52+00:00</t>
+    <t>2022-05-15T08:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T08:35:02+00:00</t>
+    <t>2022-05-15T20:34:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T20:34:26+00:00</t>
+    <t>2022-05-15T21:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T21:11:53+00:00</t>
+    <t>2022-05-15T21:22:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T21:22:54+00:00</t>
+    <t>2022-05-15T23:31:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-15T23:31:21+00:00</t>
+    <t>2022-05-16T00:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:19:33+00:00</t>
+    <t>2022-05-16T00:37:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:37:48+00:00</t>
+    <t>2022-05-16T01:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:16:16+00:00</t>
+    <t>2022-05-16T01:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:43:18+00:00</t>
+    <t>2022-05-16T01:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:51:29+00:00</t>
+    <t>2022-05-16T02:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:01:05+00:00</t>
+    <t>2022-05-16T02:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:10:26+00:00</t>
+    <t>2022-05-16T02:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:20:03+00:00</t>
+    <t>2022-05-16T02:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:38:18+00:00</t>
+    <t>2022-05-16T06:42:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T06:42:02+00:00</t>
+    <t>2022-05-16T08:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T08:40:37+00:00</t>
+    <t>2022-05-16T09:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T09:08:52+00:00</t>
+    <t>2022-05-16T13:03:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:03:47+00:00</t>
+    <t>2022-05-16T13:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:13:28+00:00</t>
+    <t>2022-05-16T13:28:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:28:44+00:00</t>
+    <t>2022-05-16T13:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:35:07+00:00</t>
+    <t>2022-05-16T20:51:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T20:51:46+00:00</t>
+    <t>2022-05-16T21:03:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:03:30+00:00</t>
+    <t>2022-05-16T21:18:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:18:12+00:00</t>
+    <t>2022-05-16T21:46:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T21:46:46+00:00</t>
+    <t>2022-05-16T22:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:00:55+00:00</t>
+    <t>2022-05-16T22:31:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:31:13+00:00</t>
+    <t>2022-05-16T22:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T22:59:36+00:00</t>
+    <t>2022-05-17T00:01:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T00:01:29+00:00</t>
+    <t>2022-05-17T00:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T00:36:56+00:00</t>
+    <t>2022-05-17T01:32:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T01:32:43+00:00</t>
+    <t>2022-05-17T02:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T02:11:59+00:00</t>
+    <t>2022-05-17T02:27:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T02:27:04+00:00</t>
+    <t>2022-05-17T21:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T21:52:12+00:00</t>
+    <t>2022-05-18T09:42:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T09:42:35+00:00</t>
+    <t>2022-05-18T10:11:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T10:11:21+00:00</t>
+    <t>2022-05-18T22:24:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-v3-ActEncounterCode.xlsx
+++ b/CodeSystem-v3-ActEncounterCode.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-18T22:24:04+00:00</t>
+    <t>2022-05-18T22:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
